--- a/data/0. old data/0. raw/2016/companies/zambon.xlsx
+++ b/data/0. old data/0. raw/2016/companies/zambon.xlsx
@@ -523,9 +523,6 @@
     <t>Brauerstrasse 15</t>
   </si>
   <si>
-    <t>IMK (SSORL Swiss Society of ORL Head and Neck Surgery)</t>
-  </si>
-  <si>
     <t>Münsterberg 1</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>Via Belvedere 10</t>
   </si>
   <si>
-    <t>BBS Congress GmbH (Jahresversammlung SGP&amp;GSASA)</t>
-  </si>
-  <si>
     <t>Postfach 604</t>
   </si>
   <si>
@@ -586,9 +580,6 @@
     <t>Wattenwylweg 21</t>
   </si>
   <si>
-    <t>IMK (SFCNS Swiss Federation of Clinical Neuro-Societies)</t>
-  </si>
-  <si>
     <t>Gruppo Medico Formazione (Corso Aggiornamento Medico di Base)</t>
   </si>
   <si>
@@ -722,6 +713,15 @@
   </si>
   <si>
     <t>Tempia-Caliera, Michela</t>
+  </si>
+  <si>
+    <t>SSORL Swiss Society of ORL Head and Neck Surgery</t>
+  </si>
+  <si>
+    <t>(SFCNS Swiss Federation of Clinical Neuro-Societies</t>
+  </si>
+  <si>
+    <t>Jahresversammlung SGP&amp;GSASA</t>
   </si>
 </sst>
 </file>
@@ -1667,9 +1667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>24</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>26</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>28</v>
@@ -1853,13 +1853,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>30</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>39</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>41</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>43</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>45</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>46</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>48</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>50</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>52</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>54</v>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>56</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>58</v>
@@ -2397,13 +2397,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
@@ -2429,13 +2429,13 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>50</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>52</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>62</v>
@@ -2525,13 +2525,13 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>62</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>60</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>63</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>65</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>66</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>67</v>
@@ -2709,13 +2709,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>69</v>
@@ -2747,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>72</v>
@@ -2776,7 +2776,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>75</v>
@@ -2805,7 +2805,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2834,7 +2834,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>80</v>
@@ -2863,7 +2863,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>83</v>
@@ -2894,7 +2894,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>85</v>
@@ -2925,7 +2925,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>87</v>
@@ -2954,7 +2954,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2983,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>90</v>
@@ -3012,7 +3012,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3039,7 +3039,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>94</v>
@@ -3068,7 +3068,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>97</v>
@@ -3101,7 +3101,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>100</v>
@@ -3130,7 +3130,7 @@
         <v>102</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>103</v>
@@ -3159,7 +3159,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>105</v>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>107</v>
@@ -3217,7 +3217,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>110</v>
@@ -3246,7 +3246,7 @@
         <v>112</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>113</v>
@@ -3275,7 +3275,7 @@
         <v>79</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>115</v>
@@ -3304,7 +3304,7 @@
         <v>117</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>118</v>
@@ -3333,7 +3333,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>121</v>
@@ -3362,7 +3362,7 @@
         <v>123</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>124</v>
@@ -3391,7 +3391,7 @@
         <v>126</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>127</v>
@@ -3420,7 +3420,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>129</v>
@@ -3449,7 +3449,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>132</v>
@@ -3478,7 +3478,7 @@
         <v>96</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>134</v>
@@ -3507,7 +3507,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>136</v>
@@ -3536,7 +3536,7 @@
         <v>138</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>139</v>
@@ -3565,7 +3565,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>142</v>
@@ -3594,7 +3594,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>144</v>
@@ -3623,7 +3623,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>146</v>
@@ -3652,7 +3652,7 @@
         <v>148</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>149</v>
@@ -3681,7 +3681,7 @@
         <v>151</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>152</v>
@@ -3710,7 +3710,7 @@
         <v>154</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>155</v>
@@ -3739,7 +3739,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>157</v>
@@ -3769,7 +3769,7 @@
         <v>159</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>160</v>
@@ -3799,7 +3799,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>162</v>
@@ -3829,7 +3829,7 @@
         <v>164</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>165</v>
@@ -3853,16 +3853,16 @@
     </row>
     <row r="72" spans="1:18" ht="26">
       <c r="A72" s="6" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="14"/>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="73" spans="1:18" ht="26">
       <c r="A73" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="14"/>
@@ -3910,18 +3910,18 @@
       </c>
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="1:18" ht="26">
+    <row r="74" spans="1:18">
       <c r="A74" s="6" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="14"/>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="75" spans="1:18" ht="39">
       <c r="A75" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="14"/>
@@ -3972,16 +3972,16 @@
     </row>
     <row r="76" spans="1:18" ht="39">
       <c r="A76" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="14"/>
@@ -4002,16 +4002,16 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="14"/>
@@ -4032,16 +4032,16 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
@@ -4061,16 +4061,16 @@
     </row>
     <row r="79" spans="1:18" ht="26">
       <c r="A79" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="14"/>
@@ -4090,16 +4090,16 @@
     </row>
     <row r="80" spans="1:18" ht="26">
       <c r="A80" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="14"/>
@@ -4119,16 +4119,16 @@
     </row>
     <row r="81" spans="1:13" ht="26">
       <c r="A81" s="6" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="14"/>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="82" spans="1:13" ht="26">
       <c r="A82" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="14"/>
@@ -4177,16 +4177,16 @@
     </row>
     <row r="83" spans="1:13" ht="52">
       <c r="A83" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="14"/>
@@ -4206,16 +4206,16 @@
     </row>
     <row r="84" spans="1:13" ht="39">
       <c r="A84" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="14"/>
@@ -4235,16 +4235,16 @@
     </row>
     <row r="85" spans="1:13" ht="39">
       <c r="A85" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="14"/>

--- a/data/0. old data/0. raw/2016/companies/zambon.xlsx
+++ b/data/0. old data/0. raw/2016/companies/zambon.xlsx
@@ -547,9 +547,6 @@
     <t>Industriestrasse 37</t>
   </si>
   <si>
-    <t>Medworld AG (KHM Fortbidlungsveranstaltung Hausarztmedizin)</t>
-  </si>
-  <si>
     <t>Steinhausen</t>
   </si>
   <si>
@@ -722,6 +719,9 @@
   </si>
   <si>
     <t>Jahresversammlung SGP&amp;GSASA</t>
+  </si>
+  <si>
+    <t>KHM Fortbidlungsveranstaltung Hausarztmedizin</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1669,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>24</v>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>24</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>26</v>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>28</v>
@@ -1853,13 +1853,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>30</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
@@ -2013,13 +2013,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>37</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>39</v>
@@ -2077,13 +2077,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>41</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>43</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>45</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>46</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>48</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>50</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>52</v>
@@ -2301,13 +2301,13 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>54</v>
@@ -2333,13 +2333,13 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>56</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>58</v>
@@ -2397,13 +2397,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
@@ -2429,13 +2429,13 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>50</v>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>52</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>62</v>
@@ -2525,13 +2525,13 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>62</v>
@@ -2557,13 +2557,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>60</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>63</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>65</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>66</v>
@@ -2679,13 +2679,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>67</v>
@@ -2709,13 +2709,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>69</v>
@@ -2747,7 +2747,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>72</v>
@@ -2776,7 +2776,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>75</v>
@@ -2805,7 +2805,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2834,7 +2834,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>80</v>
@@ -2863,7 +2863,7 @@
         <v>82</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>83</v>
@@ -2894,7 +2894,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>85</v>
@@ -2925,7 +2925,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>87</v>
@@ -2954,7 +2954,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2983,7 +2983,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>90</v>
@@ -3012,7 +3012,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3039,7 +3039,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>94</v>
@@ -3068,7 +3068,7 @@
         <v>96</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>97</v>
@@ -3101,7 +3101,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>100</v>
@@ -3130,7 +3130,7 @@
         <v>102</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>103</v>
@@ -3159,7 +3159,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>105</v>
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>107</v>
@@ -3217,7 +3217,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>110</v>
@@ -3246,7 +3246,7 @@
         <v>112</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>113</v>
@@ -3275,7 +3275,7 @@
         <v>79</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>115</v>
@@ -3304,7 +3304,7 @@
         <v>117</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>118</v>
@@ -3333,7 +3333,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>121</v>
@@ -3362,7 +3362,7 @@
         <v>123</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>124</v>
@@ -3391,7 +3391,7 @@
         <v>126</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>127</v>
@@ -3420,7 +3420,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>129</v>
@@ -3449,7 +3449,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>132</v>
@@ -3478,7 +3478,7 @@
         <v>96</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>134</v>
@@ -3507,7 +3507,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>136</v>
@@ -3536,7 +3536,7 @@
         <v>138</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>139</v>
@@ -3565,7 +3565,7 @@
         <v>141</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>142</v>
@@ -3594,7 +3594,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>144</v>
@@ -3623,7 +3623,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>146</v>
@@ -3652,7 +3652,7 @@
         <v>148</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>149</v>
@@ -3681,7 +3681,7 @@
         <v>151</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>152</v>
@@ -3710,7 +3710,7 @@
         <v>154</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>155</v>
@@ -3739,7 +3739,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>157</v>
@@ -3769,7 +3769,7 @@
         <v>159</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>160</v>
@@ -3799,7 +3799,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>162</v>
@@ -3829,7 +3829,7 @@
         <v>164</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>165</v>
@@ -3853,13 +3853,13 @@
     </row>
     <row r="72" spans="1:18" ht="26">
       <c r="A72" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>166</v>
@@ -3888,7 +3888,7 @@
         <v>168</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>169</v>
@@ -3912,13 +3912,13 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>170</v>
@@ -3948,7 +3948,7 @@
         <v>172</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>173</v>
@@ -3970,18 +3970,18 @@
       </c>
       <c r="R75" s="9"/>
     </row>
-    <row r="76" spans="1:18" ht="39">
+    <row r="76" spans="1:18" ht="26">
       <c r="A76" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="C76" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="14"/>
@@ -4002,16 +4002,16 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="14"/>
@@ -4032,16 +4032,16 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="14"/>
@@ -4061,16 +4061,16 @@
     </row>
     <row r="79" spans="1:18" ht="26">
       <c r="A79" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="14"/>
@@ -4090,16 +4090,16 @@
     </row>
     <row r="80" spans="1:18" ht="26">
       <c r="A80" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="14"/>
@@ -4119,13 +4119,13 @@
     </row>
     <row r="81" spans="1:13" ht="26">
       <c r="A81" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>166</v>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="82" spans="1:13" ht="26">
       <c r="A82" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="C82" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="14"/>
@@ -4177,16 +4177,16 @@
     </row>
     <row r="83" spans="1:13" ht="52">
       <c r="A83" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="14"/>
@@ -4206,16 +4206,16 @@
     </row>
     <row r="84" spans="1:13" ht="39">
       <c r="A84" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="C84" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="14"/>
@@ -4235,16 +4235,16 @@
     </row>
     <row r="85" spans="1:13" ht="39">
       <c r="A85" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="14"/>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="14"/>
